--- a/va_facility_data_2025-02-20/Sterling VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sterling%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sterling VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sterling%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb4849ea09dc94f0bb2cf8eb5729e1955"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3eb68fd2cd364ae885de1da5065e39a2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R638f791a74364c4b9c17c41a99e2ce92"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcf0fd261b99e497a8dfee67fa431e493"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9c9a2e1aa60f4d1a8a20ce64f9ba9a2c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ree96d6aa70444ff2a7bb7ac628b8f78b"/>
   </x:sheets>
 </x:workbook>
 </file>
